--- a/Employee_Reports35/Nikko Villanueva Cruz Q0551.xlsx
+++ b/Employee_Reports35/Nikko Villanueva Cruz Q0551.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>08-Jan-2025</t>
+          <t>21-Sep-2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>08-Jan-2026</t>
+          <t>21-Sep-2026</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1327,28 +1327,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2025</t>
+          <t>19-Feb-2025</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2027</t>
+          <t>19-Feb-2026</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>605</v>
+        <v>107</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1364,7 +1376,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Material request Procedure (Other Trainings)</t>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1372,28 +1384,102 @@
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
+          <t>17-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>17-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2027</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Material request Procedure (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
           <t>17-Nov-2024</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>17-Nov-2026</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
-        <v>379</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Nikko Villanueva Cruz Q0551.xlsx
+++ b/Employee_Reports35/Nikko Villanueva Cruz Q0551.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1393,11 +1393,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
